--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,12 +98,6 @@
   </si>
   <si>
     <t>Gpr151</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.00909013452963</v>
+        <v>0.5785946666666667</v>
       </c>
       <c r="H2">
-        <v>1.00909013452963</v>
+        <v>1.735784</v>
       </c>
       <c r="I2">
-        <v>0.07638316734846357</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="J2">
-        <v>0.07638316734846357</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.326122202085409</v>
+        <v>0.3359509999999999</v>
       </c>
       <c r="N2">
-        <v>0.326122202085409</v>
+        <v>1.007853</v>
       </c>
       <c r="O2">
-        <v>0.1716395069058238</v>
+        <v>0.1233928431506983</v>
       </c>
       <c r="P2">
-        <v>0.1716395069058238</v>
+        <v>0.1233928431506983</v>
       </c>
       <c r="Q2">
-        <v>0.3290866967754645</v>
+        <v>0.1943794568613333</v>
       </c>
       <c r="R2">
-        <v>0.3290866967754645</v>
+        <v>1.749415111752</v>
       </c>
       <c r="S2">
-        <v>0.01311036917959531</v>
+        <v>0.003630953663465586</v>
       </c>
       <c r="T2">
-        <v>0.01311036917959531</v>
+        <v>0.003630953663465585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.00909013452963</v>
+        <v>0.5785946666666667</v>
       </c>
       <c r="H3">
-        <v>1.00909013452963</v>
+        <v>1.735784</v>
       </c>
       <c r="I3">
-        <v>0.07638316734846357</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="J3">
-        <v>0.07638316734846357</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.240026510461884</v>
+        <v>0.589851</v>
       </c>
       <c r="N3">
-        <v>0.240026510461884</v>
+        <v>1.769553</v>
       </c>
       <c r="O3">
-        <v>0.1263269769324502</v>
+        <v>0.2166488324942702</v>
       </c>
       <c r="P3">
-        <v>0.1263269769324502</v>
+        <v>0.2166488324942702</v>
       </c>
       <c r="Q3">
-        <v>0.2422083837326602</v>
+        <v>0.341284642728</v>
       </c>
       <c r="R3">
-        <v>0.2422083837326602</v>
+        <v>3.071561784552</v>
       </c>
       <c r="S3">
-        <v>0.009649254619656841</v>
+        <v>0.006375101277712641</v>
       </c>
       <c r="T3">
-        <v>0.009649254619656841</v>
+        <v>0.00637510127771264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.00909013452963</v>
+        <v>0.5785946666666667</v>
       </c>
       <c r="H4">
-        <v>1.00909013452963</v>
+        <v>1.735784</v>
       </c>
       <c r="I4">
-        <v>0.07638316734846357</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="J4">
-        <v>0.07638316734846357</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.419347312208667</v>
+        <v>0.304291</v>
       </c>
       <c r="N4">
-        <v>0.419347312208667</v>
+        <v>0.912873</v>
       </c>
       <c r="O4">
-        <v>0.2207042802652486</v>
+        <v>0.1117643097807988</v>
       </c>
       <c r="P4">
-        <v>0.2207042802652486</v>
+        <v>0.1117643097807988</v>
       </c>
       <c r="Q4">
-        <v>0.4231592356912825</v>
+        <v>0.1760611497146667</v>
       </c>
       <c r="R4">
-        <v>0.4231592356912825</v>
+        <v>1.584550347432</v>
       </c>
       <c r="S4">
-        <v>0.01685809197402269</v>
+        <v>0.003288772830590195</v>
       </c>
       <c r="T4">
-        <v>0.01685809197402269</v>
+        <v>0.003288772830590194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.00909013452963</v>
+        <v>0.5785946666666667</v>
       </c>
       <c r="H5">
-        <v>1.00909013452963</v>
+        <v>1.735784</v>
       </c>
       <c r="I5">
-        <v>0.07638316734846357</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="J5">
-        <v>0.07638316734846357</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.317893441100912</v>
+        <v>0.483552</v>
       </c>
       <c r="N5">
-        <v>0.317893441100912</v>
+        <v>1.450656</v>
       </c>
       <c r="O5">
-        <v>0.1673086748778496</v>
+        <v>0.17760582969304</v>
       </c>
       <c r="P5">
-        <v>0.1673086748778496</v>
+        <v>0.17760582969304</v>
       </c>
       <c r="Q5">
-        <v>0.3207831352466063</v>
+        <v>0.279780608256</v>
       </c>
       <c r="R5">
-        <v>0.3207831352466063</v>
+        <v>2.518025474304</v>
       </c>
       <c r="S5">
-        <v>0.01277956651204447</v>
+        <v>0.005226223186941283</v>
       </c>
       <c r="T5">
-        <v>0.01277956651204447</v>
+        <v>0.005226223186941282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.00909013452963</v>
+        <v>0.5785946666666667</v>
       </c>
       <c r="H6">
-        <v>1.00909013452963</v>
+        <v>1.735784</v>
       </c>
       <c r="I6">
-        <v>0.07638316734846357</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="J6">
-        <v>0.07638316734846357</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.596652126923674</v>
+        <v>0.3327513333333333</v>
       </c>
       <c r="N6">
-        <v>0.596652126923674</v>
+        <v>0.998254</v>
       </c>
       <c r="O6">
-        <v>0.3140205610186277</v>
+        <v>0.122217624243374</v>
       </c>
       <c r="P6">
-        <v>0.3140205610186277</v>
+        <v>0.122217624243374</v>
       </c>
       <c r="Q6">
-        <v>0.6020757750248</v>
+        <v>0.1925281467928889</v>
       </c>
       <c r="R6">
-        <v>0.6020757750248</v>
+        <v>1.732753321136</v>
       </c>
       <c r="S6">
-        <v>0.02398588506314425</v>
+        <v>0.003596371711320178</v>
       </c>
       <c r="T6">
-        <v>0.02398588506314425</v>
+        <v>0.003596371711320177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.11760842829016</v>
+        <v>0.5785946666666667</v>
       </c>
       <c r="H7">
-        <v>1.11760842829016</v>
+        <v>1.735784</v>
       </c>
       <c r="I7">
-        <v>0.08459746923195592</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="J7">
-        <v>0.08459746923195592</v>
+        <v>0.02942596645602161</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.326122202085409</v>
+        <v>0.676217</v>
       </c>
       <c r="N7">
-        <v>0.326122202085409</v>
+        <v>2.028651</v>
       </c>
       <c r="O7">
-        <v>0.1716395069058238</v>
+        <v>0.2483705606378185</v>
       </c>
       <c r="P7">
-        <v>0.1716395069058238</v>
+        <v>0.2483705606378185</v>
       </c>
       <c r="Q7">
-        <v>0.3644769217031998</v>
+        <v>0.3912555497093334</v>
       </c>
       <c r="R7">
-        <v>0.3644769217031998</v>
+        <v>3.521299947384</v>
       </c>
       <c r="S7">
-        <v>0.01452026790445352</v>
+        <v>0.007308543785991731</v>
       </c>
       <c r="T7">
-        <v>0.01452026790445352</v>
+        <v>0.00730854378599173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.11760842829016</v>
+        <v>0.5333566666666667</v>
       </c>
       <c r="H8">
-        <v>1.11760842829016</v>
+        <v>1.60007</v>
       </c>
       <c r="I8">
-        <v>0.08459746923195592</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="J8">
-        <v>0.08459746923195592</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.240026510461884</v>
+        <v>0.3359509999999999</v>
       </c>
       <c r="N8">
-        <v>0.240026510461884</v>
+        <v>1.007853</v>
       </c>
       <c r="O8">
-        <v>0.1263269769324502</v>
+        <v>0.1233928431506983</v>
       </c>
       <c r="P8">
-        <v>0.1263269769324502</v>
+        <v>0.1233928431506983</v>
       </c>
       <c r="Q8">
-        <v>0.2682556511052778</v>
+        <v>0.1791817055233333</v>
       </c>
       <c r="R8">
-        <v>0.2682556511052778</v>
+        <v>1.61263534971</v>
       </c>
       <c r="S8">
-        <v>0.01068694254420896</v>
+        <v>0.003347063936700292</v>
       </c>
       <c r="T8">
-        <v>0.01068694254420896</v>
+        <v>0.003347063936700291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.11760842829016</v>
+        <v>0.5333566666666667</v>
       </c>
       <c r="H9">
-        <v>1.11760842829016</v>
+        <v>1.60007</v>
       </c>
       <c r="I9">
-        <v>0.08459746923195592</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="J9">
-        <v>0.08459746923195592</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.419347312208667</v>
+        <v>0.589851</v>
       </c>
       <c r="N9">
-        <v>0.419347312208667</v>
+        <v>1.769553</v>
       </c>
       <c r="O9">
-        <v>0.2207042802652486</v>
+        <v>0.2166488324942702</v>
       </c>
       <c r="P9">
-        <v>0.2207042802652486</v>
+        <v>0.2166488324942702</v>
       </c>
       <c r="Q9">
-        <v>0.4686660905052313</v>
+        <v>0.31460096319</v>
       </c>
       <c r="R9">
-        <v>0.4686660905052313</v>
+        <v>2.83140866871</v>
       </c>
       <c r="S9">
-        <v>0.01867102355910034</v>
+        <v>0.005876657637948999</v>
       </c>
       <c r="T9">
-        <v>0.01867102355910034</v>
+        <v>0.005876657637948998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.11760842829016</v>
+        <v>0.5333566666666667</v>
       </c>
       <c r="H10">
-        <v>1.11760842829016</v>
+        <v>1.60007</v>
       </c>
       <c r="I10">
-        <v>0.08459746923195592</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="J10">
-        <v>0.08459746923195592</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.317893441100912</v>
+        <v>0.304291</v>
       </c>
       <c r="N10">
-        <v>0.317893441100912</v>
+        <v>0.912873</v>
       </c>
       <c r="O10">
-        <v>0.1673086748778496</v>
+        <v>0.1117643097807988</v>
       </c>
       <c r="P10">
-        <v>0.1673086748778496</v>
+        <v>0.1117643097807988</v>
       </c>
       <c r="Q10">
-        <v>0.3552803890725408</v>
+        <v>0.1622956334566667</v>
       </c>
       <c r="R10">
-        <v>0.3552803890725408</v>
+        <v>1.46066070111</v>
       </c>
       <c r="S10">
-        <v>0.0141538904752182</v>
+        <v>0.003031636852881726</v>
       </c>
       <c r="T10">
-        <v>0.0141538904752182</v>
+        <v>0.003031636852881726</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.11760842829016</v>
+        <v>0.5333566666666667</v>
       </c>
       <c r="H11">
-        <v>1.11760842829016</v>
+        <v>1.60007</v>
       </c>
       <c r="I11">
-        <v>0.08459746923195592</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="J11">
-        <v>0.08459746923195592</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.596652126923674</v>
+        <v>0.483552</v>
       </c>
       <c r="N11">
-        <v>0.596652126923674</v>
+        <v>1.450656</v>
       </c>
       <c r="O11">
-        <v>0.3140205610186277</v>
+        <v>0.17760582969304</v>
       </c>
       <c r="P11">
-        <v>0.3140205610186277</v>
+        <v>0.17760582969304</v>
       </c>
       <c r="Q11">
-        <v>0.6668234458071483</v>
+        <v>0.25790568288</v>
       </c>
       <c r="R11">
-        <v>0.6668234458071483</v>
+        <v>2.32115114592</v>
       </c>
       <c r="S11">
-        <v>0.02656534474897489</v>
+        <v>0.004817605724404153</v>
       </c>
       <c r="T11">
-        <v>0.02656534474897489</v>
+        <v>0.004817605724404153</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>11.084198151192</v>
+        <v>0.5333566666666667</v>
       </c>
       <c r="H12">
-        <v>11.084198151192</v>
+        <v>1.60007</v>
       </c>
       <c r="I12">
-        <v>0.8390193634195805</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="J12">
-        <v>0.8390193634195805</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.326122202085409</v>
+        <v>0.3327513333333333</v>
       </c>
       <c r="N12">
-        <v>0.326122202085409</v>
+        <v>0.998254</v>
       </c>
       <c r="O12">
-        <v>0.1716395069058238</v>
+        <v>0.122217624243374</v>
       </c>
       <c r="P12">
-        <v>0.1716395069058238</v>
+        <v>0.122217624243374</v>
       </c>
       <c r="Q12">
-        <v>3.614803109417754</v>
+        <v>0.1774751419755556</v>
       </c>
       <c r="R12">
-        <v>3.614803109417754</v>
+        <v>1.59727627778</v>
       </c>
       <c r="S12">
-        <v>0.144008869821775</v>
+        <v>0.003315185808909448</v>
       </c>
       <c r="T12">
-        <v>0.144008869821775</v>
+        <v>0.003315185808909447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>11.084198151192</v>
+        <v>0.5333566666666667</v>
       </c>
       <c r="H13">
-        <v>11.084198151192</v>
+        <v>1.60007</v>
       </c>
       <c r="I13">
-        <v>0.8390193634195805</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="J13">
-        <v>0.8390193634195805</v>
+        <v>0.02712526797532787</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.240026510461884</v>
+        <v>0.676217</v>
       </c>
       <c r="N13">
-        <v>0.240026510461884</v>
+        <v>2.028651</v>
       </c>
       <c r="O13">
-        <v>0.1263269769324502</v>
+        <v>0.2483705606378185</v>
       </c>
       <c r="P13">
-        <v>0.1263269769324502</v>
+        <v>0.2483705606378185</v>
       </c>
       <c r="Q13">
-        <v>2.660501403498682</v>
+        <v>0.3606648450633334</v>
       </c>
       <c r="R13">
-        <v>2.660501403498682</v>
+        <v>3.24598360557</v>
       </c>
       <c r="S13">
-        <v>0.1059907797685844</v>
+        <v>0.006737118014483246</v>
       </c>
       <c r="T13">
-        <v>0.1059907797685844</v>
+        <v>0.006737118014483247</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.084198151192</v>
+        <v>1.154119333333333</v>
       </c>
       <c r="H14">
-        <v>11.084198151192</v>
+        <v>3.462358</v>
       </c>
       <c r="I14">
-        <v>0.8390193634195805</v>
+        <v>0.05869579991907868</v>
       </c>
       <c r="J14">
-        <v>0.8390193634195805</v>
+        <v>0.05869579991907869</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.419347312208667</v>
+        <v>0.3359509999999999</v>
       </c>
       <c r="N14">
-        <v>0.419347312208667</v>
+        <v>1.007853</v>
       </c>
       <c r="O14">
-        <v>0.2207042802652486</v>
+        <v>0.1233928431506983</v>
       </c>
       <c r="P14">
-        <v>0.2207042802652486</v>
+        <v>0.1233928431506983</v>
       </c>
       <c r="Q14">
-        <v>4.648128702690641</v>
+        <v>0.3877275441526666</v>
       </c>
       <c r="R14">
-        <v>4.648128702690641</v>
+        <v>3.489547897374</v>
       </c>
       <c r="S14">
-        <v>0.1851751647321256</v>
+        <v>0.007242641633019647</v>
       </c>
       <c r="T14">
-        <v>0.1851751647321256</v>
+        <v>0.007242641633019646</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.084198151192</v>
+        <v>1.154119333333333</v>
       </c>
       <c r="H15">
-        <v>11.084198151192</v>
+        <v>3.462358</v>
       </c>
       <c r="I15">
-        <v>0.8390193634195805</v>
+        <v>0.05869579991907868</v>
       </c>
       <c r="J15">
-        <v>0.8390193634195805</v>
+        <v>0.05869579991907869</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.317893441100912</v>
+        <v>0.589851</v>
       </c>
       <c r="N15">
-        <v>0.317893441100912</v>
+        <v>1.769553</v>
       </c>
       <c r="O15">
-        <v>0.1673086748778496</v>
+        <v>0.2166488324942702</v>
       </c>
       <c r="P15">
-        <v>0.1673086748778496</v>
+        <v>0.2166488324942702</v>
       </c>
       <c r="Q15">
-        <v>3.523593892126792</v>
+        <v>0.680758442886</v>
       </c>
       <c r="R15">
-        <v>3.523593892126792</v>
+        <v>6.126825985974</v>
       </c>
       <c r="S15">
-        <v>0.140375217890587</v>
+        <v>0.01271637652478568</v>
       </c>
       <c r="T15">
-        <v>0.140375217890587</v>
+        <v>0.01271637652478567</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,1363 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.084198151192</v>
+        <v>1.154119333333333</v>
       </c>
       <c r="H16">
-        <v>11.084198151192</v>
+        <v>3.462358</v>
       </c>
       <c r="I16">
-        <v>0.8390193634195805</v>
+        <v>0.05869579991907868</v>
       </c>
       <c r="J16">
-        <v>0.8390193634195805</v>
+        <v>0.05869579991907869</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.596652126923674</v>
+        <v>0.304291</v>
       </c>
       <c r="N16">
-        <v>0.596652126923674</v>
+        <v>0.912873</v>
       </c>
       <c r="O16">
-        <v>0.3140205610186277</v>
+        <v>0.1117643097807988</v>
       </c>
       <c r="P16">
-        <v>0.3140205610186277</v>
+        <v>0.1117643097807988</v>
       </c>
       <c r="Q16">
-        <v>6.613410402152161</v>
+        <v>0.3511881260593334</v>
       </c>
       <c r="R16">
-        <v>6.613410402152161</v>
+        <v>3.160693134534</v>
       </c>
       <c r="S16">
-        <v>0.2634693312065086</v>
+        <v>0.006560095564987697</v>
       </c>
       <c r="T16">
-        <v>0.2634693312065086</v>
+        <v>0.006560095564987697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.154119333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.462358</v>
+      </c>
+      <c r="I17">
+        <v>0.05869579991907868</v>
+      </c>
+      <c r="J17">
+        <v>0.05869579991907869</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.483552</v>
+      </c>
+      <c r="N17">
+        <v>1.450656</v>
+      </c>
+      <c r="O17">
+        <v>0.17760582969304</v>
+      </c>
+      <c r="P17">
+        <v>0.17760582969304</v>
+      </c>
+      <c r="Q17">
+        <v>0.5580767118719999</v>
+      </c>
+      <c r="R17">
+        <v>5.022690406848</v>
+      </c>
+      <c r="S17">
+        <v>0.01042471624412464</v>
+      </c>
+      <c r="T17">
+        <v>0.01042471624412464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.154119333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.462358</v>
+      </c>
+      <c r="I18">
+        <v>0.05869579991907868</v>
+      </c>
+      <c r="J18">
+        <v>0.05869579991907869</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3327513333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.998254</v>
+      </c>
+      <c r="O18">
+        <v>0.122217624243374</v>
+      </c>
+      <c r="P18">
+        <v>0.122217624243374</v>
+      </c>
+      <c r="Q18">
+        <v>0.3840347469924444</v>
+      </c>
+      <c r="R18">
+        <v>3.456312722932</v>
+      </c>
+      <c r="S18">
+        <v>0.007173661219174221</v>
+      </c>
+      <c r="T18">
+        <v>0.00717366121917422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.154119333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.462358</v>
+      </c>
+      <c r="I19">
+        <v>0.05869579991907868</v>
+      </c>
+      <c r="J19">
+        <v>0.05869579991907869</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.676217</v>
+      </c>
+      <c r="N19">
+        <v>2.028651</v>
+      </c>
+      <c r="O19">
+        <v>0.2483705606378185</v>
+      </c>
+      <c r="P19">
+        <v>0.2483705606378185</v>
+      </c>
+      <c r="Q19">
+        <v>0.7804351132286665</v>
+      </c>
+      <c r="R19">
+        <v>7.023916019058</v>
+      </c>
+      <c r="S19">
+        <v>0.0145783087329868</v>
+      </c>
+      <c r="T19">
+        <v>0.0145783087329868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.769058666666667</v>
+      </c>
+      <c r="H20">
+        <v>5.307176</v>
+      </c>
+      <c r="I20">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="J20">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3359509999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.007853</v>
+      </c>
+      <c r="O20">
+        <v>0.1233928431506983</v>
+      </c>
+      <c r="P20">
+        <v>0.1233928431506983</v>
+      </c>
+      <c r="Q20">
+        <v>0.5943170281253333</v>
+      </c>
+      <c r="R20">
+        <v>5.348853253128</v>
+      </c>
+      <c r="S20">
+        <v>0.01110167517378696</v>
+      </c>
+      <c r="T20">
+        <v>0.01110167517378696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.769058666666667</v>
+      </c>
+      <c r="H21">
+        <v>5.307176</v>
+      </c>
+      <c r="I21">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="J21">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.589851</v>
+      </c>
+      <c r="N21">
+        <v>1.769553</v>
+      </c>
+      <c r="O21">
+        <v>0.2166488324942702</v>
+      </c>
+      <c r="P21">
+        <v>0.2166488324942702</v>
+      </c>
+      <c r="Q21">
+        <v>1.043481023592</v>
+      </c>
+      <c r="R21">
+        <v>9.391329212327999</v>
+      </c>
+      <c r="S21">
+        <v>0.019491932463167</v>
+      </c>
+      <c r="T21">
+        <v>0.01949193246316699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>1.769058666666667</v>
+      </c>
+      <c r="H22">
+        <v>5.307176</v>
+      </c>
+      <c r="I22">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="J22">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.304291</v>
+      </c>
+      <c r="N22">
+        <v>0.912873</v>
+      </c>
+      <c r="O22">
+        <v>0.1117643097807988</v>
+      </c>
+      <c r="P22">
+        <v>0.1117643097807988</v>
+      </c>
+      <c r="Q22">
+        <v>0.5383086307386667</v>
+      </c>
+      <c r="R22">
+        <v>4.844777676648</v>
+      </c>
+      <c r="S22">
+        <v>0.01005545404034163</v>
+      </c>
+      <c r="T22">
+        <v>0.01005545404034162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>1.769058666666667</v>
+      </c>
+      <c r="H23">
+        <v>5.307176</v>
+      </c>
+      <c r="I23">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="J23">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.483552</v>
+      </c>
+      <c r="N23">
+        <v>1.450656</v>
+      </c>
+      <c r="O23">
+        <v>0.17760582969304</v>
+      </c>
+      <c r="P23">
+        <v>0.17760582969304</v>
+      </c>
+      <c r="Q23">
+        <v>0.855431856384</v>
+      </c>
+      <c r="R23">
+        <v>7.698886707455999</v>
+      </c>
+      <c r="S23">
+        <v>0.01597922683258878</v>
+      </c>
+      <c r="T23">
+        <v>0.01597922683258878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>1.769058666666667</v>
+      </c>
+      <c r="H24">
+        <v>5.307176</v>
+      </c>
+      <c r="I24">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="J24">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3327513333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.998254</v>
+      </c>
+      <c r="O24">
+        <v>0.122217624243374</v>
+      </c>
+      <c r="P24">
+        <v>0.122217624243374</v>
+      </c>
+      <c r="Q24">
+        <v>0.5886566300782223</v>
+      </c>
+      <c r="R24">
+        <v>5.297909670704</v>
+      </c>
+      <c r="S24">
+        <v>0.01099594052796741</v>
+      </c>
+      <c r="T24">
+        <v>0.0109959405279674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>1.769058666666667</v>
+      </c>
+      <c r="H25">
+        <v>5.307176</v>
+      </c>
+      <c r="I25">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="J25">
+        <v>0.08997017080017039</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.676217</v>
+      </c>
+      <c r="N25">
+        <v>2.028651</v>
+      </c>
+      <c r="O25">
+        <v>0.2483705606378185</v>
+      </c>
+      <c r="P25">
+        <v>0.2483705606378185</v>
+      </c>
+      <c r="Q25">
+        <v>1.196267544397333</v>
+      </c>
+      <c r="R25">
+        <v>10.766407899576</v>
+      </c>
+      <c r="S25">
+        <v>0.02234594176231861</v>
+      </c>
+      <c r="T25">
+        <v>0.02234594176231861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.133008</v>
+      </c>
+      <c r="H26">
+        <v>3.399024</v>
+      </c>
+      <c r="I26">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="J26">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3359509999999999</v>
+      </c>
+      <c r="N26">
+        <v>1.007853</v>
+      </c>
+      <c r="O26">
+        <v>0.1233928431506983</v>
+      </c>
+      <c r="P26">
+        <v>0.1233928431506983</v>
+      </c>
+      <c r="Q26">
+        <v>0.380635170608</v>
+      </c>
+      <c r="R26">
+        <v>3.425716535472</v>
+      </c>
+      <c r="S26">
+        <v>0.007110158087070423</v>
+      </c>
+      <c r="T26">
+        <v>0.007110158087070421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.133008</v>
+      </c>
+      <c r="H27">
+        <v>3.399024</v>
+      </c>
+      <c r="I27">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="J27">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.589851</v>
+      </c>
+      <c r="N27">
+        <v>1.769553</v>
+      </c>
+      <c r="O27">
+        <v>0.2166488324942702</v>
+      </c>
+      <c r="P27">
+        <v>0.2166488324942702</v>
+      </c>
+      <c r="Q27">
+        <v>0.668305901808</v>
+      </c>
+      <c r="R27">
+        <v>6.014753116272</v>
+      </c>
+      <c r="S27">
+        <v>0.0124837665546957</v>
+      </c>
+      <c r="T27">
+        <v>0.0124837665546957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.133008</v>
+      </c>
+      <c r="H28">
+        <v>3.399024</v>
+      </c>
+      <c r="I28">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="J28">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.304291</v>
+      </c>
+      <c r="N28">
+        <v>0.912873</v>
+      </c>
+      <c r="O28">
+        <v>0.1117643097807988</v>
+      </c>
+      <c r="P28">
+        <v>0.1117643097807988</v>
+      </c>
+      <c r="Q28">
+        <v>0.344764137328</v>
+      </c>
+      <c r="R28">
+        <v>3.102877235952</v>
+      </c>
+      <c r="S28">
+        <v>0.0064400972596383</v>
+      </c>
+      <c r="T28">
+        <v>0.006440097259638298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.133008</v>
+      </c>
+      <c r="H29">
+        <v>3.399024</v>
+      </c>
+      <c r="I29">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="J29">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.483552</v>
+      </c>
+      <c r="N29">
+        <v>1.450656</v>
+      </c>
+      <c r="O29">
+        <v>0.17760582969304</v>
+      </c>
+      <c r="P29">
+        <v>0.17760582969304</v>
+      </c>
+      <c r="Q29">
+        <v>0.547868284416</v>
+      </c>
+      <c r="R29">
+        <v>4.930814559743999</v>
+      </c>
+      <c r="S29">
+        <v>0.01023402568624317</v>
+      </c>
+      <c r="T29">
+        <v>0.01023402568624316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.133008</v>
+      </c>
+      <c r="H30">
+        <v>3.399024</v>
+      </c>
+      <c r="I30">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="J30">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.3327513333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.998254</v>
+      </c>
+      <c r="O30">
+        <v>0.122217624243374</v>
+      </c>
+      <c r="P30">
+        <v>0.122217624243374</v>
+      </c>
+      <c r="Q30">
+        <v>0.3770099226773334</v>
+      </c>
+      <c r="R30">
+        <v>3.393089304096</v>
+      </c>
+      <c r="S30">
+        <v>0.00704243947386216</v>
+      </c>
+      <c r="T30">
+        <v>0.007042439473862158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.133008</v>
+      </c>
+      <c r="H31">
+        <v>3.399024</v>
+      </c>
+      <c r="I31">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="J31">
+        <v>0.05762212706604762</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.676217</v>
+      </c>
+      <c r="N31">
+        <v>2.028651</v>
+      </c>
+      <c r="O31">
+        <v>0.2483705606378185</v>
+      </c>
+      <c r="P31">
+        <v>0.2483705606378185</v>
+      </c>
+      <c r="Q31">
+        <v>0.766159270736</v>
+      </c>
+      <c r="R31">
+        <v>6.895433436624</v>
+      </c>
+      <c r="S31">
+        <v>0.01431164000453787</v>
+      </c>
+      <c r="T31">
+        <v>0.01431164000453786</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>14.494587</v>
+      </c>
+      <c r="H32">
+        <v>43.483761</v>
+      </c>
+      <c r="I32">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="J32">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.3359509999999999</v>
+      </c>
+      <c r="N32">
+        <v>1.007853</v>
+      </c>
+      <c r="O32">
+        <v>0.1233928431506983</v>
+      </c>
+      <c r="P32">
+        <v>0.1233928431506983</v>
+      </c>
+      <c r="Q32">
+        <v>4.869470997236999</v>
+      </c>
+      <c r="R32">
+        <v>43.825238975133</v>
+      </c>
+      <c r="S32">
+        <v>0.09096035065665541</v>
+      </c>
+      <c r="T32">
+        <v>0.09096035065665539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>14.494587</v>
+      </c>
+      <c r="H33">
+        <v>43.483761</v>
+      </c>
+      <c r="I33">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="J33">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.589851</v>
+      </c>
+      <c r="N33">
+        <v>1.769553</v>
+      </c>
+      <c r="O33">
+        <v>0.2166488324942702</v>
+      </c>
+      <c r="P33">
+        <v>0.2166488324942702</v>
+      </c>
+      <c r="Q33">
+        <v>8.549646636537</v>
+      </c>
+      <c r="R33">
+        <v>76.94681972883301</v>
+      </c>
+      <c r="S33">
+        <v>0.1597049980359602</v>
+      </c>
+      <c r="T33">
+        <v>0.1597049980359601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>14.494587</v>
+      </c>
+      <c r="H34">
+        <v>43.483761</v>
+      </c>
+      <c r="I34">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="J34">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.304291</v>
+      </c>
+      <c r="N34">
+        <v>0.912873</v>
+      </c>
+      <c r="O34">
+        <v>0.1117643097807988</v>
+      </c>
+      <c r="P34">
+        <v>0.1117643097807988</v>
+      </c>
+      <c r="Q34">
+        <v>4.410572372817001</v>
+      </c>
+      <c r="R34">
+        <v>39.695151355353</v>
+      </c>
+      <c r="S34">
+        <v>0.08238825323235929</v>
+      </c>
+      <c r="T34">
+        <v>0.08238825323235928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>14.494587</v>
+      </c>
+      <c r="H35">
+        <v>43.483761</v>
+      </c>
+      <c r="I35">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="J35">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.483552</v>
+      </c>
+      <c r="N35">
+        <v>1.450656</v>
+      </c>
+      <c r="O35">
+        <v>0.17760582969304</v>
+      </c>
+      <c r="P35">
+        <v>0.17760582969304</v>
+      </c>
+      <c r="Q35">
+        <v>7.008886533024</v>
+      </c>
+      <c r="R35">
+        <v>63.079978797216</v>
+      </c>
+      <c r="S35">
+        <v>0.130924032018738</v>
+      </c>
+      <c r="T35">
+        <v>0.130924032018738</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>14.494587</v>
+      </c>
+      <c r="H36">
+        <v>43.483761</v>
+      </c>
+      <c r="I36">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="J36">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.3327513333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.998254</v>
+      </c>
+      <c r="O36">
+        <v>0.122217624243374</v>
+      </c>
+      <c r="P36">
+        <v>0.122217624243374</v>
+      </c>
+      <c r="Q36">
+        <v>4.823093150366001</v>
+      </c>
+      <c r="R36">
+        <v>43.407838353294</v>
+      </c>
+      <c r="S36">
+        <v>0.09009402550214059</v>
+      </c>
+      <c r="T36">
+        <v>0.09009402550214057</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>14.494587</v>
+      </c>
+      <c r="H37">
+        <v>43.483761</v>
+      </c>
+      <c r="I37">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="J37">
+        <v>0.7371606677833538</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.676217</v>
+      </c>
+      <c r="N37">
+        <v>2.028651</v>
+      </c>
+      <c r="O37">
+        <v>0.2483705606378185</v>
+      </c>
+      <c r="P37">
+        <v>0.2483705606378185</v>
+      </c>
+      <c r="Q37">
+        <v>9.801486137378999</v>
+      </c>
+      <c r="R37">
+        <v>88.213375236411</v>
+      </c>
+      <c r="S37">
+        <v>0.1830890083375003</v>
+      </c>
+      <c r="T37">
+        <v>0.1830890083375002</v>
       </c>
     </row>
   </sheetData>
